--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -647,49 +647,49 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V2" t="n">
         <v>12</v>
@@ -704,19 +704,19 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AA2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -731,7 +731,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
     </row>
@@ -1014,35 +1014,93 @@
           <t>Marek</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>175</v>
+      </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1076,36 +1134,96 @@
           <t>Atl. Ottawa</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>24</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12</v>
+      </c>
+      <c r="W8" t="n">
+        <v>50</v>
+      </c>
+      <c r="X8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1380,36 +1498,96 @@
           <t>Dubrava</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>15</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1443,31 +1621,31 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M12" t="n">
         <v>3.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1476,22 +1654,22 @@
         <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
         <v>6.5</v>
       </c>
       <c r="U12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
@@ -1500,10 +1678,10 @@
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
         <v>17</v>
@@ -1515,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
         <v>51</v>
@@ -1564,9 +1742,15 @@
           <t>Tammeka</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.5</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1577,23 +1761,57 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1639,7 +1857,7 @@
         <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.44</v>
@@ -1651,7 +1869,7 @@
         <v>2.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -1749,19 +1967,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -1776,16 +1994,16 @@
         <v>1.62</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
         <v>9.5</v>
@@ -1794,19 +2012,19 @@
         <v>19</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
         <v>41</v>
       </c>
       <c r="X15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
         <v>6.5</v>
@@ -1815,10 +2033,10 @@
         <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>8.5</v>
@@ -1830,13 +2048,13 @@
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16">
@@ -1880,10 +2098,10 @@
         <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
         <v>1.25</v>
@@ -1892,10 +2110,10 @@
         <v>3.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P16" t="n">
         <v>1.36</v>
@@ -1943,7 +2161,7 @@
         <v>7.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
         <v>8.5</v>
@@ -1958,7 +2176,7 @@
         <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2223,7 @@
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2026,10 +2244,10 @@
         <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -2080,7 +2298,7 @@
         <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18">
@@ -2115,46 +2333,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.7</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
         <v>6.5</v>
@@ -2166,13 +2384,13 @@
         <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
         <v>7.5</v>
@@ -2181,10 +2399,10 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -2202,7 +2420,7 @@
         <v>51</v>
       </c>
       <c r="AJ18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19">
@@ -2272,16 +2490,16 @@
         <v>1.98</v>
       </c>
       <c r="T19" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V19" t="n">
         <v>8.25</v>
       </c>
       <c r="W19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X19" t="n">
         <v>13.5</v>
@@ -2302,22 +2520,22 @@
         <v>60</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
         <v>60</v>
       </c>
       <c r="AH19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
         <v>400</v>
@@ -2358,35 +2576,35 @@
         <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="N20" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O20" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T20" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="U20" t="n">
         <v>8.25</v>
@@ -2401,40 +2619,40 @@
         <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -2469,13 +2687,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2486,7 +2704,7 @@
         <v>3.1</v>
       </c>
       <c r="N21" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.8</v>
@@ -2519,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
         <v>10.25</v>
@@ -2587,10 +2805,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
         <v>3.9</v>
@@ -2598,16 +2816,16 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="N22" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O22" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -2616,61 +2834,61 @@
         <v>2.55</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T22" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V22" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
         <v>15</v>
       </c>
       <c r="X22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB22" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD22" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE22" t="n">
         <v>20</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
         <v>60</v>
       </c>
       <c r="AH22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23">
@@ -2705,83 +2923,83 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T23" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="U23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V23" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="W23" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="X23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z23" t="n">
         <v>11.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AF23" t="n">
         <v>8.25</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
         <v>700</v>
@@ -2818,36 +3036,84 @@
           <t>FK Liepaja</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>19</v>
+      </c>
+      <c r="X24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2880,36 +3146,80 @@
           <t>Dainava Alytus</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.9</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.07</v>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2964,10 +3274,10 @@
         <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -2976,16 +3286,16 @@
         <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>8.5</v>
       </c>
       <c r="U26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V26" t="n">
         <v>10</v>
@@ -3012,7 +3322,7 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -3030,7 +3340,7 @@
         <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
@@ -3064,35 +3374,93 @@
           <t>Nacional Asuncion</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T27" t="n">
+        <v>8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>13</v>
+      </c>
+      <c r="W27" t="n">
+        <v>41</v>
+      </c>
+      <c r="X27" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>41</v>
+      </c>
       <c r="AJ27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -3126,36 +3494,92 @@
           <t>12 de Junio</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>21</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3188,35 +3612,89 @@
           <t>Fernando de la Mora</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W29" t="n">
+        <v>23</v>
+      </c>
+      <c r="X29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>50</v>
+      </c>
       <c r="AJ29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -3251,13 +3729,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -3266,34 +3744,34 @@
         <v>15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S30" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
         <v>8.5</v>
@@ -3311,19 +3789,19 @@
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB30" t="n">
         <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD30" t="n">
         <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -3373,94 +3851,94 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H31" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P31" t="n">
         <v>1.33</v>
       </c>
-      <c r="M31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Q31" t="n">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="U31" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="V31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X31" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
         <v>29</v>
       </c>
-      <c r="Z31" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>37</v>
-      </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -3557,94 +4035,94 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
         <v>2.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K33" t="n">
+        <v>15</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>13</v>
+      </c>
+      <c r="U33" t="n">
+        <v>17</v>
+      </c>
+      <c r="V33" t="n">
         <v>11</v>
       </c>
-      <c r="L33" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="T33" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="U33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>10.25</v>
-      </c>
       <c r="W33" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB33" t="n">
         <v>11</v>
       </c>
-      <c r="AA33" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AC33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD33" t="n">
         <v>12</v>
       </c>
-      <c r="AC33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AE33" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
         <v>10</v>
       </c>
       <c r="AG33" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
         <v>23</v>
       </c>
       <c r="AJ33" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -3679,94 +4157,94 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H34" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K34" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="L34" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="M34" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="N34" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="O34" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="U34" t="n">
         <v>10</v>
       </c>
       <c r="V34" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X34" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AA34" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AH34" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -3801,94 +4279,94 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K35" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L35" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="M35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N35" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="O35" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="P35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="R35" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S35" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="U35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V35" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AB35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AF35" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG35" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AH35" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ35" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
@@ -3922,35 +4400,89 @@
           <t>Tacuarembo</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>6</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V36" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>55</v>
+      </c>
       <c r="AJ36" t="inlineStr"/>
     </row>
     <row r="37">

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -656,10 +656,10 @@
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.83</v>
@@ -668,16 +668,16 @@
         <v>1.83</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
@@ -1015,19 +1015,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>11.25</v>
+        <v>18.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
@@ -1042,64 +1042,64 @@
         <v>1.87</v>
       </c>
       <c r="P7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="U7" t="n">
-        <v>5.1</v>
+        <v>4.55</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AE7" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AF7" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
         <v>400</v>
       </c>
       <c r="AH7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AI7" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1135,94 +1135,94 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="N8" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O8" t="n">
-        <v>2.47</v>
+        <v>2.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="U8" t="n">
+        <v>25</v>
+      </c>
+      <c r="V8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>65</v>
+      </c>
+      <c r="X8" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
         <v>24</v>
       </c>
-      <c r="V8" t="n">
-        <v>12</v>
-      </c>
-      <c r="W8" t="n">
-        <v>50</v>
-      </c>
-      <c r="X8" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1284,31 +1284,31 @@
         <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="V9" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="W9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
         <v>45</v>
@@ -1317,33 +1317,35 @@
         <v>6.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
         <v>50</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1377,94 +1379,94 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="N10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="T10" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="U10" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="V10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>28</v>
+      </c>
+      <c r="X10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD10" t="n">
         <v>9.5</v>
       </c>
-      <c r="W10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9</v>
-      </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AH10" t="n">
         <v>40</v>
       </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1624,16 +1626,16 @@
         <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -1699,7 +1701,7 @@
         <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
@@ -1845,13 +1847,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -1887,13 +1889,13 @@
         <v>7</v>
       </c>
       <c r="U14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
@@ -1914,10 +1916,10 @@
         <v>67</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>11</v>
@@ -1976,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2455,13 +2457,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2484,25 +2486,25 @@
         <v>2.42</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T19" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="U19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>23</v>
@@ -2511,34 +2513,34 @@
         <v>11.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
         <v>60</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AH19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20">
@@ -2576,10 +2578,10 @@
         <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2604,10 +2606,10 @@
         <v>1.9</v>
       </c>
       <c r="T20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U20" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V20" t="n">
         <v>8</v>
@@ -2616,13 +2618,13 @@
         <v>13</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
         <v>24</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA20" t="n">
         <v>7.3</v>
@@ -2634,7 +2636,7 @@
         <v>65</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -2687,7 +2689,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
@@ -2752,7 +2754,7 @@
         <v>70</v>
       </c>
       <c r="AD21" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -2805,10 +2807,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>3.9</v>
@@ -2816,64 +2818,64 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S22" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T22" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="U22" t="n">
         <v>8.25</v>
       </c>
       <c r="V22" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB22" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
         <v>13.5</v>
@@ -2885,10 +2887,10 @@
         <v>37</v>
       </c>
       <c r="AI22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ22" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -2923,10 +2925,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I23" t="n">
         <v>1.5</v>
@@ -2934,7 +2936,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
         <v>3.25</v>
@@ -2954,7 +2956,7 @@
         <v>1.75</v>
       </c>
       <c r="T23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="U23" t="n">
         <v>35</v>
@@ -2975,19 +2977,19 @@
         <v>11.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC23" t="n">
         <v>90</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
         <v>8.25</v>
@@ -3037,73 +3039,73 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O24" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U24" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="V24" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="W24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
         <v>22</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC24" t="n">
         <v>45</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
@@ -3147,75 +3149,75 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="H25" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>6.9</v>
+        <v>9.25</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O25" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U25" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="V25" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="X25" t="n">
         <v>9.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z25" t="n">
         <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB25" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AH25" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
         <v>450</v>
@@ -3253,19 +3255,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
         <v>1.3</v>
@@ -3292,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
         <v>13</v>
@@ -3301,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X26" t="n">
         <v>21</v>
@@ -3322,16 +3324,16 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
         <v>21</v>
@@ -3375,13 +3377,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J27" t="n">
         <v>1.11</v>
@@ -3414,22 +3416,22 @@
         <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U27" t="n">
+        <v>17</v>
+      </c>
+      <c r="V27" t="n">
         <v>15</v>
-      </c>
-      <c r="V27" t="n">
-        <v>13</v>
       </c>
       <c r="W27" t="n">
         <v>41</v>
       </c>
       <c r="X27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z27" t="n">
         <v>6.5</v>
@@ -3438,22 +3440,22 @@
         <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
         <v>81</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
         <v>21</v>
@@ -3498,10 +3500,10 @@
         <v>2.22</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3524,10 +3526,10 @@
         <v>2.32</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T28" t="n">
         <v>6.5</v>
@@ -3551,7 +3553,7 @@
         <v>7.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB28" t="n">
         <v>17</v>
@@ -3560,7 +3562,7 @@
         <v>100</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE28" t="n">
         <v>14.5</v>
@@ -3624,37 +3626,37 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N29" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="O29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.5</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S29" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U29" t="n">
         <v>10</v>
       </c>
       <c r="V29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W29" t="n">
         <v>23</v>
@@ -3666,34 +3668,34 @@
         <v>40</v>
       </c>
       <c r="Z29" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA29" t="n">
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG29" t="n">
         <v>40</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ29" t="inlineStr"/>
     </row>
@@ -3851,19 +3853,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.22</v>
@@ -3893,7 +3895,7 @@
         <v>9.5</v>
       </c>
       <c r="U31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V31" t="n">
         <v>9.5</v>
@@ -3902,13 +3904,13 @@
         <v>23</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -3923,7 +3925,7 @@
         <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
@@ -4086,7 +4088,7 @@
         <v>29</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
         <v>23</v>
@@ -4113,10 +4115,10 @@
         <v>10</v>
       </c>
       <c r="AG33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
         <v>23</v>
@@ -4184,10 +4186,10 @@
         <v>3.1</v>
       </c>
       <c r="P34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R34" t="n">
         <v>1.5</v>
@@ -4199,13 +4201,13 @@
         <v>13</v>
       </c>
       <c r="U34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V34" t="n">
         <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -4226,7 +4228,7 @@
         <v>34</v>
       </c>
       <c r="AD34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE34" t="n">
         <v>41</v>
@@ -4235,7 +4237,7 @@
         <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
@@ -4401,89 +4403,91 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="M36" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="O36" t="n">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="S36" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="U36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V36" t="n">
         <v>8.25</v>
       </c>
-      <c r="V36" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W36" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.7</v>
+        <v>11.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="AB36" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AD36" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH36" t="n">
         <v>40</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ36" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4516,35 +4520,89 @@
           <t>Atenas</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V37" t="n">
+        <v>10</v>
+      </c>
+      <c r="W37" t="n">
+        <v>26</v>
+      </c>
+      <c r="X37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>50</v>
+      </c>
       <c r="AJ37" t="inlineStr"/>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
         <v>1.9</v>
@@ -1162,22 +1162,22 @@
         <v>2.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q8" t="n">
         <v>2.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V8" t="n">
         <v>13.5</v>
@@ -1195,7 +1195,7 @@
         <v>8.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB8" t="n">
         <v>13.5</v>
@@ -1219,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>350</v>
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
         <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3500,10 +3500,10 @@
         <v>2.22</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3526,10 +3526,10 @@
         <v>2.32</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T28" t="n">
         <v>6.5</v>
@@ -3553,7 +3553,7 @@
         <v>7.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB28" t="n">
         <v>17</v>
@@ -3562,7 +3562,7 @@
         <v>100</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>14.5</v>
@@ -4521,89 +4521,91 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="H37" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.5</v>
       </c>
-      <c r="M37" t="n">
+      <c r="P37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q37" t="n">
         <v>2.27</v>
       </c>
-      <c r="N37" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="S37" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T37" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="U37" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X37" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AA37" t="n">
         <v>5.7</v>
       </c>
       <c r="AB37" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC37" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG37" t="n">
         <v>40</v>
       </c>
       <c r="AH37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ37" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>900</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -828,35 +828,81 @@
           <t>Zrinjski</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.17</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.15</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>35</v>
+      </c>
+      <c r="U4" t="n">
+        <v>150</v>
+      </c>
+      <c r="V4" t="n">
+        <v>55</v>
+      </c>
+      <c r="W4" t="n">
+        <v>800</v>
+      </c>
+      <c r="X4" t="n">
+        <v>300</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>250</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>45</v>
+      </c>
       <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -890,36 +936,88 @@
           <t>Borac Banja Luka</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.45</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.87</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>37</v>
+      </c>
+      <c r="V5" t="n">
+        <v>20</v>
+      </c>
+      <c r="W5" t="n">
+        <v>120</v>
+      </c>
+      <c r="X5" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -952,35 +1050,85 @@
           <t>Sloboda</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>100</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1015,91 +1163,91 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
       <c r="T7" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="U7" t="n">
-        <v>4.55</v>
+        <v>4.9</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="W7" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AD7" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AH7" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AI7" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1135,19 +1283,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.23</v>
@@ -1162,55 +1310,55 @@
         <v>2.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="X8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
         <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
         <v>55</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE8" t="n">
         <v>10.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>18</v>
@@ -1219,10 +1367,10 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ8" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -1379,94 +1527,94 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="T10" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="U10" t="n">
         <v>12</v>
       </c>
       <c r="V10" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AH10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="n">
         <v>40</v>
       </c>
-      <c r="AI10" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -1856,16 +2004,16 @@
         <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
         <v>7.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N14" t="n">
         <v>2.35</v>
@@ -1984,16 +2132,16 @@
         <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2356,10 +2504,10 @@
         <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -3377,13 +3525,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
         <v>1.11</v>
@@ -3398,16 +3546,16 @@
         <v>2.5</v>
       </c>
       <c r="N27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
         <v>2.2</v>
@@ -3416,19 +3564,19 @@
         <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
         <v>17</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W27" t="n">
         <v>41</v>
       </c>
       <c r="X27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
@@ -3452,7 +3600,7 @@
         <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
         <v>19</v>
@@ -3497,42 +3645,42 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M28" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N28" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="O28" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P28" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T28" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="U28" t="n">
         <v>9.75</v>
@@ -3541,19 +3689,19 @@
         <v>9.5</v>
       </c>
       <c r="W28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB28" t="n">
         <v>17</v>
@@ -3562,25 +3710,25 @@
         <v>100</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE28" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
         <v>45</v>
       </c>
       <c r="AJ28" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -3615,87 +3763,87 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I29" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N29" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.52</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="n">
         <v>1.7</v>
       </c>
       <c r="T29" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V29" t="n">
         <v>9.5</v>
       </c>
       <c r="W29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X29" t="n">
         <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA29" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC29" t="n">
         <v>100</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
         <v>40</v>
       </c>
       <c r="AH29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ29" t="inlineStr"/>
     </row>
@@ -3752,10 +3900,10 @@
         <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P30" t="n">
         <v>1.29</v>
@@ -3974,36 +4122,96 @@
           <t>Grasshoppers</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T32" t="n">
+        <v>11</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15</v>
+      </c>
+      <c r="V32" t="n">
+        <v>10</v>
+      </c>
+      <c r="W32" t="n">
+        <v>29</v>
+      </c>
+      <c r="X32" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4180,10 +4388,10 @@
         <v>7</v>
       </c>
       <c r="N34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O34" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P34" t="n">
         <v>1.18</v>
@@ -4403,27 +4611,27 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="P36" t="n">
         <v>1.38</v>
@@ -4432,61 +4640,61 @@
         <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T36" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="U36" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V36" t="n">
         <v>8.25</v>
       </c>
       <c r="W36" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB36" t="n">
         <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD36" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI36" t="n">
         <v>40</v>
       </c>
       <c r="AJ36" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37">
@@ -4521,10 +4729,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H37" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3.05</v>
@@ -4532,67 +4740,67 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="N37" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P37" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="R37" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="S37" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="T37" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="U37" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V37" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X37" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
         <v>40</v>
@@ -4601,10 +4809,10 @@
         <v>30</v>
       </c>
       <c r="AI37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -829,79 +829,79 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="U4" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="V4" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="W4" t="n">
         <v>800</v>
       </c>
       <c r="X4" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Y4" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="n">
         <v>250</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>5.3</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
     </row>
@@ -1051,83 +1051,83 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N6" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="S6" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="T6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U6" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG6" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AH6" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
     </row>
@@ -1163,91 +1163,91 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="R7" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U7" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="V7" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AD7" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AE7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="n">
         <v>800</v>
       </c>
       <c r="AH7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AI7" t="n">
         <v>300</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>250</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1527,49 +1527,49 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="N10" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="P10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="U10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V10" t="n">
         <v>9</v>
@@ -1578,25 +1578,25 @@
         <v>27</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AA10" t="n">
         <v>5.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -1605,16 +1605,16 @@
         <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AH10" t="n">
         <v>37</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ10" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
@@ -1998,22 +1998,22 @@
         <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N14" t="n">
         <v>2.35</v>
@@ -2052,7 +2052,7 @@
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA14" t="n">
         <v>6</v>
@@ -2504,10 +2504,10 @@
         <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -3786,19 +3786,19 @@
         <v>1.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q29" t="n">
         <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S29" t="n">
         <v>1.7</v>
       </c>
       <c r="T29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U29" t="n">
         <v>10.25</v>
@@ -3816,7 +3816,7 @@
         <v>37</v>
       </c>
       <c r="Z29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA29" t="n">
         <v>5.8</v>
@@ -3828,7 +3828,7 @@
         <v>100</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -3837,13 +3837,13 @@
         <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH29" t="n">
         <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ29" t="inlineStr"/>
     </row>
@@ -4123,13 +4123,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H32" t="n">
         <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4171,7 +4171,7 @@
         <v>10</v>
       </c>
       <c r="W32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
@@ -4192,7 +4192,7 @@
         <v>41</v>
       </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -4204,7 +4204,7 @@
         <v>23</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
         <v>23</v>
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
@@ -4740,28 +4740,28 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O37" t="n">
         <v>1.57</v>
       </c>
       <c r="P37" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="R37" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S37" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T37" t="n">
         <v>6.9</v>
@@ -4782,25 +4782,25 @@
         <v>35</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC37" t="n">
         <v>80</v>
       </c>
       <c r="AD37" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG37" t="n">
         <v>40</v>
@@ -4809,10 +4809,10 @@
         <v>30</v>
       </c>
       <c r="AI37" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ37" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.83</v>
@@ -832,31 +832,31 @@
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="O4" t="n">
-        <v>2.27</v>
+        <v>2.65</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="T4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="U4" t="n">
         <v>300</v>
@@ -871,37 +871,37 @@
         <v>600</v>
       </c>
       <c r="Y4" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="AF4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH4" t="n">
         <v>11.25</v>
       </c>
-      <c r="AG4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
     </row>
@@ -1163,91 +1163,91 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T7" t="n">
         <v>5.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5.7</v>
       </c>
       <c r="U7" t="n">
         <v>4.75</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W7" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="n">
         <v>350</v>
       </c>
       <c r="AD7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
         <v>800</v>
       </c>
       <c r="AH7" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AI7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1310,7 +1310,7 @@
         <v>2.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1322,10 +1322,10 @@
         <v>2.15</v>
       </c>
       <c r="T8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V8" t="n">
         <v>13</v>
@@ -1349,16 +1349,16 @@
         <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG8" t="n">
         <v>18</v>
@@ -1408,25 +1408,25 @@
         <v>2.37</v>
       </c>
       <c r="H9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.05</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.57</v>
@@ -1438,22 +1438,22 @@
         <v>2.47</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U9" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>10.25</v>
       </c>
       <c r="W9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
         <v>25</v>
@@ -1462,28 +1462,28 @@
         <v>45</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
         <v>110</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
@@ -1492,7 +1492,7 @@
         <v>50</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1792,10 +1792,10 @@
         <v>3.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1810,7 +1810,7 @@
         <v>1.73</v>
       </c>
       <c r="T12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
@@ -1834,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -2670,10 +2670,10 @@
         <v>60</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
@@ -2685,7 +2685,7 @@
         <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
         <v>450</v>
@@ -2757,7 +2757,7 @@
         <v>7.4</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V20" t="n">
         <v>8</v>
@@ -2766,13 +2766,13 @@
         <v>13</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
         <v>24</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA20" t="n">
         <v>7.3</v>
@@ -2837,13 +2837,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2872,7 +2872,7 @@
         <v>1.88</v>
       </c>
       <c r="T21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U21" t="n">
         <v>8.75</v>
@@ -2890,19 +2890,19 @@
         <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>6.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD21" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -2911,7 +2911,7 @@
         <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH21" t="n">
         <v>37</v>
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>3.9</v>
@@ -2966,16 +2966,16 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="N22" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P22" t="n">
         <v>1.38</v>
@@ -2984,43 +2984,43 @@
         <v>2.57</v>
       </c>
       <c r="R22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.78</v>
       </c>
-      <c r="S22" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T22" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="U22" t="n">
         <v>8.25</v>
       </c>
       <c r="V22" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
         <v>14.5</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AA22" t="n">
         <v>6.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
         <v>21</v>
@@ -3038,7 +3038,7 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23">
@@ -3134,10 +3134,10 @@
         <v>90</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF23" t="n">
         <v>8.25</v>
@@ -3187,23 +3187,23 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O24" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3214,55 +3214,55 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U24" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="V24" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X24" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z24" t="n">
         <v>9</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AE24" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AG24" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>24</v>
       </c>
       <c r="AJ24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25">
@@ -3320,7 +3320,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U25" t="n">
         <v>5.2</v>
@@ -3335,22 +3335,22 @@
         <v>9.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
         <v>9</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="n">
         <v>90</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
         <v>50</v>
@@ -3365,7 +3365,7 @@
         <v>90</v>
       </c>
       <c r="AI25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
         <v>450</v>
@@ -3680,7 +3680,7 @@
         <v>1.7</v>
       </c>
       <c r="T28" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U28" t="n">
         <v>9.75</v>
@@ -3692,13 +3692,13 @@
         <v>22</v>
       </c>
       <c r="X28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3710,13 +3710,13 @@
         <v>100</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AE28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG28" t="n">
         <v>40</v>
@@ -3725,7 +3725,7 @@
         <v>32</v>
       </c>
       <c r="AI28" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ28" t="n">
         <v>1000</v>
@@ -3777,10 +3777,10 @@
         <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="N29" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -3807,13 +3807,13 @@
         <v>9.5</v>
       </c>
       <c r="W29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X29" t="n">
         <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="n">
         <v>6.9</v>
@@ -3822,28 +3822,28 @@
         <v>5.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>100</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH29" t="n">
         <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ29" t="inlineStr"/>
     </row>
@@ -4123,13 +4123,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4138,31 +4138,31 @@
         <v>15</v>
       </c>
       <c r="L32" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O32" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U32" t="n">
         <v>15</v>
@@ -4183,25 +4183,25 @@
         <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
         <v>19</v>
@@ -4210,7 +4210,7 @@
         <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -4260,16 +4260,16 @@
         <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P33" t="n">
         <v>1.29</v>
@@ -4501,7 +4501,7 @@
         <v>1.01</v>
       </c>
       <c r="K35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L35" t="n">
         <v>1.1</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -829,37 +829,37 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="O4" t="n">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="U4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V4" t="n">
         <v>90</v>
@@ -871,37 +871,37 @@
         <v>600</v>
       </c>
       <c r="Y4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>40</v>
       </c>
       <c r="AC4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
     </row>
@@ -937,71 +937,71 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="M5" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="N5" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="U5" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="V5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X5" t="n">
         <v>70</v>
       </c>
       <c r="Y5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC5" t="n">
         <v>70</v>
       </c>
-      <c r="Z5" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>100</v>
-      </c>
       <c r="AD5" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF5" t="n">
         <v>8.25</v>
@@ -1010,13 +1010,13 @@
         <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1068,68 +1068,70 @@
         <v>3.7</v>
       </c>
       <c r="N6" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="O6" t="n">
-        <v>2.07</v>
+        <v>2.42</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="T6" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="U6" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="V6" t="n">
         <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH6" t="n">
         <v>175</v>
       </c>
       <c r="AI6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1163,13 +1165,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1178,40 +1180,40 @@
         <v>8.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O7" t="n">
         <v>2.02</v>
       </c>
       <c r="P7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="R7" t="n">
         <v>2.92</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
         <v>5.8</v>
       </c>
       <c r="U7" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="V7" t="n">
         <v>11.25</v>
       </c>
       <c r="W7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1223,31 +1225,31 @@
         <v>8.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
         <v>50</v>
       </c>
       <c r="AC7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AE7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AI7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1292,10 +1294,10 @@
         <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.23</v>
@@ -1322,7 +1324,7 @@
         <v>2.15</v>
       </c>
       <c r="T8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="U8" t="n">
         <v>22</v>
@@ -1340,7 +1342,7 @@
         <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA8" t="n">
         <v>7.6</v>
@@ -1349,7 +1351,7 @@
         <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD8" t="n">
         <v>8.5</v>
@@ -1361,7 +1363,7 @@
         <v>8.75</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1652,7 +1654,7 @@
         <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>3.6</v>
@@ -1670,10 +1672,10 @@
         <v>3.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1688,7 +1690,7 @@
         <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
         <v>9</v>
@@ -1703,13 +1705,13 @@
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -1730,13 +1732,13 @@
         <v>41</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12">
@@ -2608,7 +2610,7 @@
         <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
         <v>4.3</v>
@@ -2640,7 +2642,7 @@
         <v>1.93</v>
       </c>
       <c r="T19" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U19" t="n">
         <v>8.5</v>
@@ -2670,10 +2672,10 @@
         <v>60</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
@@ -2685,7 +2687,7 @@
         <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="n">
         <v>450</v>
@@ -3134,7 +3136,7 @@
         <v>90</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE23" t="n">
         <v>6.9</v>
@@ -3297,51 +3299,51 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H25" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O25" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="U25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="V25" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z25" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB25" t="n">
         <v>20</v>
@@ -3350,16 +3352,16 @@
         <v>90</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH25" t="n">
         <v>90</v>
@@ -3418,16 +3420,16 @@
         <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -4001,31 +4003,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>1.33</v>
@@ -4034,13 +4036,13 @@
         <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U31" t="n">
         <v>12</v>
@@ -4049,7 +4051,7 @@
         <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X31" t="n">
         <v>17</v>
@@ -4058,7 +4060,7 @@
         <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4079,13 +4081,13 @@
         <v>11</v>
       </c>
       <c r="AG31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI31" t="n">
         <v>29</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>26</v>
       </c>
       <c r="AJ31" t="n">
         <v>151</v>
@@ -4729,90 +4731,90 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="M37" t="n">
-        <v>2.55</v>
+        <v>2.87</v>
       </c>
       <c r="N37" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="O37" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="P37" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="R37" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="T37" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="U37" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V37" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI37" t="n">
         <v>35</v>
       </c>
-      <c r="Z37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -829,81 +829,83 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="T4" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="U4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V4" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="W4" t="n">
         <v>800</v>
       </c>
       <c r="X4" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Y4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
         <v>40</v>
       </c>
       <c r="AC4" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -937,13 +939,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -954,24 +956,24 @@
         <v>3.55</v>
       </c>
       <c r="N5" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V5" t="n">
         <v>21</v>
@@ -980,28 +982,28 @@
         <v>150</v>
       </c>
       <c r="X5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="n">
         <v>55</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
         <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AF5" t="n">
         <v>8.25</v>
@@ -1010,13 +1012,13 @@
         <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1068,69 +1070,69 @@
         <v>3.7</v>
       </c>
       <c r="N6" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="O6" t="n">
-        <v>2.42</v>
+        <v>2.87</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="U6" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE6" t="n">
         <v>120</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>110</v>
       </c>
       <c r="AF6" t="n">
         <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH6" t="n">
         <v>175</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1651,13 +1653,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.02</v>
@@ -1672,10 +1674,10 @@
         <v>3.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1690,55 +1692,55 @@
         <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2262,10 +2264,10 @@
         <v>3.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O16" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P16" t="n">
         <v>1.36</v>
@@ -2494,22 +2496,22 @@
         <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2572,7 +2574,7 @@
         <v>51</v>
       </c>
       <c r="AJ18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19">
@@ -3893,7 +3895,7 @@
         <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L30" t="n">
         <v>1.17</v>
@@ -4012,10 +4014,10 @@
         <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4024,10 +4026,10 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P31" t="n">
         <v>1.33</v>
@@ -4262,16 +4264,16 @@
         <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P33" t="n">
         <v>1.29</v>
@@ -4369,13 +4371,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H34" t="n">
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J34" t="n">
         <v>1.01</v>
@@ -4390,10 +4392,10 @@
         <v>7</v>
       </c>
       <c r="N34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O34" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P34" t="n">
         <v>1.18</v>
@@ -4402,10 +4404,10 @@
         <v>4.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T34" t="n">
         <v>13</v>
@@ -4432,28 +4434,28 @@
         <v>11</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
         <v>34</v>
       </c>
       <c r="AD34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG34" t="n">
         <v>51</v>
       </c>
       <c r="AH34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
         <v>101</v>
@@ -4734,87 +4736,87 @@
         <v>2.27</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="N37" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O37" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P37" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R37" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="T37" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="U37" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="V37" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X37" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y37" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB37" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD37" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE37" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG37" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI37" t="n">
         <v>35</v>
       </c>
       <c r="AJ37" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -656,28 +656,28 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
         <v>4.65</v>
       </c>
       <c r="I5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -956,18 +956,18 @@
         <v>3.55</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O5" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
         <v>22</v>
@@ -976,49 +976,49 @@
         <v>45</v>
       </c>
       <c r="V5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" t="n">
         <v>150</v>
       </c>
       <c r="X5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
         <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AF5" t="n">
         <v>8.25</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>10.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
         <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1439,13 +1439,13 @@
         <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
         <v>6.4</v>
@@ -1454,16 +1454,16 @@
         <v>11</v>
       </c>
       <c r="V9" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
         <v>6.2</v>
@@ -1481,22 +1481,22 @@
         <v>7.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
         <v>45</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI9" t="n">
         <v>50</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -1531,46 +1531,46 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U10" t="n">
         <v>12.5</v>
@@ -1579,46 +1579,46 @@
         <v>9</v>
       </c>
       <c r="W10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB10" t="n">
         <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AH10" t="n">
         <v>37</v>
       </c>
       <c r="AI10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -1796,10 +1796,10 @@
         <v>3.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1814,7 +1814,7 @@
         <v>1.73</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
@@ -1838,7 +1838,7 @@
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -2008,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
         <v>1.44</v>
@@ -2020,10 +2020,10 @@
         <v>2.63</v>
       </c>
       <c r="N14" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2264,10 +2264,10 @@
         <v>3.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O16" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P16" t="n">
         <v>1.36</v>
@@ -2377,7 +2377,7 @@
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2502,16 +2502,16 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2730,10 +2730,10 @@
         <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2844,24 +2844,24 @@
         <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P21" t="n">
         <v>1.39</v>
@@ -2870,22 +2870,22 @@
         <v>2.57</v>
       </c>
       <c r="R21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T21" t="n">
         <v>7.3</v>
       </c>
       <c r="U21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V21" t="n">
         <v>8.25</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X21" t="n">
         <v>14</v>
@@ -2894,10 +2894,10 @@
         <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
         <v>14.5</v>
@@ -2906,22 +2906,22 @@
         <v>65</v>
       </c>
       <c r="AD21" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AH21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI21" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
         <v>500</v>
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H23" t="n">
         <v>4.05</v>
@@ -3114,7 +3114,7 @@
         <v>35</v>
       </c>
       <c r="V23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="W23" t="n">
         <v>110</v>
@@ -3126,13 +3126,13 @@
         <v>60</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
         <v>90</v>
@@ -3141,7 +3141,7 @@
         <v>6.8</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
         <v>8.25</v>
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3422,16 +3422,16 @@
         <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3440,10 +3440,10 @@
         <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T26" t="n">
         <v>9</v>
@@ -3452,16 +3452,16 @@
         <v>13</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
         <v>29</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
         <v>10</v>
@@ -3476,13 +3476,13 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG26" t="n">
         <v>23</v>
@@ -3494,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -3538,10 +3538,10 @@
         <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
         <v>1.5</v>
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
         <v>2.6</v>
@@ -4139,7 +4139,7 @@
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L32" t="n">
         <v>1.18</v>
@@ -4148,10 +4148,10 @@
         <v>4.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P32" t="n">
         <v>1.29</v>
@@ -4160,40 +4160,40 @@
         <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S32" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U32" t="n">
         <v>15</v>
       </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
         <v>23</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="n">
         <v>12</v>
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -4249,13 +4249,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4300,10 +4300,10 @@
         <v>29</v>
       </c>
       <c r="X33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z33" t="n">
         <v>15</v>
@@ -4318,22 +4318,22 @@
         <v>34</v>
       </c>
       <c r="AD33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
         <v>101</v>
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H34" t="n">
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J34" t="n">
         <v>1.01</v>
@@ -4398,28 +4398,28 @@
         <v>3.1</v>
       </c>
       <c r="P34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V34" t="n">
         <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -4428,13 +4428,13 @@
         <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA34" t="n">
         <v>11</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
         <v>34</v>
@@ -4443,19 +4443,19 @@
         <v>23</v>
       </c>
       <c r="AE34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="n">
         <v>34</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>29</v>
       </c>
       <c r="AJ34" t="n">
         <v>101</v>
@@ -4514,10 +4514,10 @@
         <v>7</v>
       </c>
       <c r="N35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O35" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P35" t="n">
         <v>1.2</v>
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
         <v>3.8</v>
@@ -4626,16 +4626,16 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N36" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O36" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P36" t="n">
         <v>1.38</v>
@@ -4644,43 +4644,43 @@
         <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U36" t="n">
         <v>8.75</v>
       </c>
       <c r="V36" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W36" t="n">
+        <v>16</v>
+      </c>
+      <c r="X36" t="n">
         <v>15.5</v>
       </c>
-      <c r="X36" t="n">
-        <v>15</v>
-      </c>
       <c r="Y36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB36" t="n">
         <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE36" t="n">
         <v>21</v>
@@ -4733,10 +4733,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
         <v>3.05</v>
@@ -4744,16 +4744,16 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M37" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="N37" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="O37" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P37" t="n">
         <v>1.42</v>
@@ -4762,43 +4762,43 @@
         <v>2.47</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S37" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="T37" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="U37" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="V37" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W37" t="n">
         <v>24</v>
       </c>
       <c r="X37" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD37" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE37" t="n">
         <v>16</v>
@@ -4810,13 +4810,13 @@
         <v>40</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI37" t="n">
         <v>35</v>
       </c>
       <c r="AJ37" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -656,16 +656,16 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N2" t="n">
         <v>3.6</v>
@@ -832,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -842,10 +842,10 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -874,10 +874,10 @@
         <v>300</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>40</v>
@@ -886,13 +886,13 @@
         <v>150</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
         <v>6.8</v>
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -956,69 +956,69 @@
         <v>3.55</v>
       </c>
       <c r="N5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
         <v>22</v>
       </c>
       <c r="U5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>10.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>1.17</v>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1070,27 +1070,27 @@
         <v>3.7</v>
       </c>
       <c r="N6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O6" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="V6" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1099,16 +1099,16 @@
         <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC6" t="n">
         <v>90</v>
@@ -1117,13 +1117,13 @@
         <v>50</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH6" t="n">
         <v>175</v>
@@ -1132,7 +1132,7 @@
         <v>100</v>
       </c>
       <c r="AJ6" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -1170,10 +1170,10 @@
         <v>1.17</v>
       </c>
       <c r="H7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1200,7 +1200,7 @@
         <v>2.92</v>
       </c>
       <c r="R7" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1233,10 +1233,10 @@
         <v>50</v>
       </c>
       <c r="AC7" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
         <v>150</v>
@@ -1296,10 +1296,10 @@
         <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.23</v>
@@ -1344,7 +1344,7 @@
         <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>7.6</v>
@@ -1356,7 +1356,7 @@
         <v>55</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE8" t="n">
         <v>10.75</v>
@@ -1365,7 +1365,7 @@
         <v>8.75</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -2008,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>1.44</v>
@@ -2133,7 +2133,7 @@
         <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2160,7 +2160,7 @@
         <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
         <v>19</v>
@@ -2178,13 +2178,13 @@
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
@@ -2193,7 +2193,7 @@
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
@@ -2202,13 +2202,13 @@
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16">
@@ -2264,10 +2264,10 @@
         <v>3.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>1.36</v>
@@ -2508,10 +2508,10 @@
         <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2844,10 +2844,10 @@
         <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2870,7 +2870,7 @@
         <v>2.57</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S21" t="n">
         <v>1.9</v>
@@ -2891,7 +2891,7 @@
         <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
         <v>11</v>
@@ -2900,13 +2900,13 @@
         <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
         <v>65</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
         <v>1.5</v>
@@ -3117,16 +3117,16 @@
         <v>18.5</v>
       </c>
       <c r="W23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y23" t="n">
         <v>60</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
         <v>7.9</v>
@@ -3144,7 +3144,7 @@
         <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
         <v>10.25</v>
@@ -3883,13 +3883,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -3916,19 +3916,19 @@
         <v>3.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U30" t="n">
         <v>11</v>
       </c>
       <c r="V30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
         <v>17</v>
@@ -3940,7 +3940,7 @@
         <v>21</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
         <v>7.5</v>
@@ -3964,13 +3964,13 @@
         <v>41</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -4005,19 +4005,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4026,10 +4026,10 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>1.33</v>
@@ -4050,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="V31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W31" t="n">
         <v>21</v>
@@ -4068,7 +4068,7 @@
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
@@ -4139,7 +4139,7 @@
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L32" t="n">
         <v>1.18</v>
@@ -4148,10 +4148,10 @@
         <v>4.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P32" t="n">
         <v>1.29</v>
@@ -4249,13 +4249,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4303,7 +4303,7 @@
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z33" t="n">
         <v>15</v>
@@ -4318,13 +4318,13 @@
         <v>34</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
         <v>23</v>
@@ -4333,7 +4333,7 @@
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
         <v>101</v>
@@ -4514,10 +4514,10 @@
         <v>7</v>
       </c>
       <c r="N35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O35" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P35" t="n">
         <v>1.2</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-30.xlsx
@@ -671,10 +671,10 @@
         <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
@@ -942,10 +942,10 @@
         <v>7.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -956,69 +956,69 @@
         <v>3.55</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
         <v>50</v>
       </c>
       <c r="V5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W5" t="n">
         <v>175</v>
       </c>
       <c r="X5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF5" t="n">
         <v>8.25</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1170,10 +1170,10 @@
         <v>1.17</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1185,7 +1185,7 @@
         <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N7" t="n">
         <v>1.72</v>
@@ -1200,22 +1200,22 @@
         <v>2.92</v>
       </c>
       <c r="R7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T7" t="n">
         <v>5.8</v>
       </c>
       <c r="U7" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="V7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1227,13 +1227,13 @@
         <v>8.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="n">
         <v>50</v>
       </c>
       <c r="AC7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AD7" t="n">
         <v>32</v>
@@ -1242,7 +1242,7 @@
         <v>150</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
@@ -1251,7 +1251,7 @@
         <v>400</v>
       </c>
       <c r="AI7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1287,19 +1287,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
         <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.23</v>
@@ -1326,10 +1326,10 @@
         <v>2.15</v>
       </c>
       <c r="T8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>13</v>
@@ -1344,10 +1344,10 @@
         <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB8" t="n">
         <v>14</v>
@@ -2133,7 +2133,7 @@
         <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2142,10 +2142,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2374,10 +2374,10 @@
         <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2386,10 +2386,10 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2508,10 +2508,10 @@
         <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O18" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2574,7 +2574,7 @@
         <v>51</v>
       </c>
       <c r="AJ18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19">
@@ -2650,7 +2650,7 @@
         <v>8.5</v>
       </c>
       <c r="V19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W19" t="n">
         <v>13.5</v>
@@ -2689,7 +2689,7 @@
         <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
         <v>450</v>
@@ -2730,10 +2730,10 @@
         <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2758,28 +2758,28 @@
         <v>1.9</v>
       </c>
       <c r="T20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U20" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V20" t="n">
         <v>8</v>
       </c>
       <c r="W20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X20" t="n">
         <v>13</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
         <v>24</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB20" t="n">
         <v>15</v>
@@ -2788,19 +2788,19 @@
         <v>65</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
         <v>45</v>
@@ -2844,10 +2844,10 @@
         <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2855,7 +2855,7 @@
         <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N21" t="n">
         <v>1.78</v>
@@ -2870,37 +2870,37 @@
         <v>2.57</v>
       </c>
       <c r="R21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U21" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V21" t="n">
         <v>8.25</v>
       </c>
       <c r="W21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X21" t="n">
         <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA21" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
         <v>65</v>
@@ -2918,7 +2918,7 @@
         <v>60</v>
       </c>
       <c r="AH21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI21" t="n">
         <v>40</v>
@@ -3077,86 +3077,86 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N23" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S23" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="U23" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V23" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="W23" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X23" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ23" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24">
@@ -3218,10 +3218,10 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
@@ -3242,10 +3242,10 @@
         <v>5.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC24" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="n">
         <v>6.6</v>
@@ -3266,7 +3266,7 @@
         <v>24</v>
       </c>
       <c r="AJ24" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
@@ -3666,10 +3666,10 @@
         <v>2.45</v>
       </c>
       <c r="N28" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
         <v>1.52</v>
@@ -3684,7 +3684,7 @@
         <v>1.7</v>
       </c>
       <c r="T28" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U28" t="n">
         <v>9.75</v>
@@ -3696,13 +3696,13 @@
         <v>22</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3714,13 +3714,13 @@
         <v>100</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
         <v>40</v>
@@ -3729,7 +3729,7 @@
         <v>32</v>
       </c>
       <c r="AI28" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ28" t="n">
         <v>1000</v>
@@ -3793,7 +3793,7 @@
         <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R29" t="n">
         <v>1.93</v>
@@ -3802,10 +3802,10 @@
         <v>1.7</v>
       </c>
       <c r="T29" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U29" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V29" t="n">
         <v>9.5</v>
@@ -3832,13 +3832,13 @@
         <v>100</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
         <v>40</v>
@@ -4017,7 +4017,7 @@
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4249,13 +4249,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -4270,10 +4270,10 @@
         <v>4.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P33" t="n">
         <v>1.29</v>
@@ -4288,7 +4288,7 @@
         <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U33" t="n">
         <v>17</v>
@@ -4327,10 +4327,10 @@
         <v>10</v>
       </c>
       <c r="AG33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
         <v>23</v>
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H34" t="n">
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J34" t="n">
         <v>1.01</v>
@@ -4431,7 +4431,7 @@
         <v>23</v>
       </c>
       <c r="AA34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -4443,13 +4443,13 @@
         <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -4615,27 +4615,27 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="N36" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="P36" t="n">
         <v>1.38</v>
@@ -4644,61 +4644,61 @@
         <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="S36" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="T36" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="U36" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AD36" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AE36" t="n">
         <v>21</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG36" t="n">
         <v>55</v>
       </c>
       <c r="AH36" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI36" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ36" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37">
@@ -4733,27 +4733,27 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H37" t="n">
         <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M37" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="N37" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O37" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P37" t="n">
         <v>1.42</v>
@@ -4762,10 +4762,10 @@
         <v>2.47</v>
       </c>
       <c r="R37" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
         <v>7.3</v>
@@ -4786,22 +4786,22 @@
         <v>30</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA37" t="n">
         <v>5.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
         <v>10.75</v>
@@ -4810,13 +4810,13 @@
         <v>40</v>
       </c>
       <c r="AH37" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ37" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
